--- a/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
+++ b/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63623304-98DC-43AD-87CD-6FCEF03229BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A4BB26-3F6F-4E41-9C5E-D1F855A11600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
   </bookViews>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,23 +619,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +635,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -956,112 +959,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F011D9DF-B9D4-4017-9120-1D11F56BF4C8}">
-  <dimension ref="B1:V89"/>
+  <dimension ref="B1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="S22:V22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="13.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="14.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="8" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="6"/>
-    <col min="15" max="16" width="9.140625" style="9"/>
-    <col min="17" max="17" width="23.85546875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="6" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="9" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="5" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="3"/>
+    <col min="15" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="23.85546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="N1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="N1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="14" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2">
         <v>35</v>
       </c>
@@ -1083,29 +1086,29 @@
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>1</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="12">
+      <c r="R3" s="4"/>
+      <c r="S3" s="7">
         <v>35</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12" t="s">
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2">
         <v>36</v>
       </c>
@@ -1131,33 +1134,34 @@
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="12">
+      <c r="M4" s="14"/>
+      <c r="N4" s="7">
         <v>2</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="12">
+      <c r="R4" s="4"/>
+      <c r="S4" s="7">
         <v>36</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1170,7 +1174,7 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2">
         <v>37</v>
       </c>
@@ -1183,33 +1187,35 @@
       <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="12">
+      <c r="M5" s="14"/>
+      <c r="N5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="12">
+      <c r="R5" s="4"/>
+      <c r="S5" s="7">
         <v>37</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1222,7 +1228,7 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2">
         <v>38</v>
       </c>
@@ -1235,33 +1241,35 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="12">
+      <c r="M6" s="14"/>
+      <c r="N6" s="7">
         <v>4</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="12">
+      <c r="R6" s="4"/>
+      <c r="S6" s="7">
         <v>38</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1274,7 +1282,7 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2">
         <v>39</v>
       </c>
@@ -1287,33 +1295,35 @@
       <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="12">
+      <c r="M7" s="14"/>
+      <c r="N7" s="7">
         <v>5</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="12">
+      <c r="R7" s="4"/>
+      <c r="S7" s="7">
         <v>39</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1326,7 +1336,7 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2">
         <v>40</v>
       </c>
@@ -1339,33 +1349,35 @@
       <c r="J8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="12">
+      <c r="M8" s="14"/>
+      <c r="N8" s="7">
         <v>6</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="12">
+      <c r="R8" s="4"/>
+      <c r="S8" s="7">
         <v>40</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="U8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1378,7 +1390,7 @@
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2">
         <v>41</v>
       </c>
@@ -1391,33 +1403,35 @@
       <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="12">
+      <c r="M9" s="14"/>
+      <c r="N9" s="7">
         <v>7</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="12" t="s">
+      <c r="P9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="12">
+      <c r="R9" s="4"/>
+      <c r="S9" s="7">
         <v>41</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="U9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1430,7 +1444,7 @@
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2">
         <v>42</v>
       </c>
@@ -1443,33 +1457,33 @@
       <c r="J10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>8</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+      <c r="P10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="13">
+      <c r="R10" s="4"/>
+      <c r="S10" s="8">
         <v>42</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="V10" s="13" t="s">
+      <c r="U10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V10" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1482,7 +1496,7 @@
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2">
         <v>43</v>
       </c>
@@ -1495,33 +1509,34 @@
       <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="12">
+      <c r="M11" s="14"/>
+      <c r="N11" s="7">
         <v>9</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="12" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="13">
+      <c r="R11" s="4"/>
+      <c r="S11" s="8">
         <v>43</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1534,7 +1549,7 @@
       <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2">
         <v>44</v>
       </c>
@@ -1547,33 +1562,34 @@
       <c r="J12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>10</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+      <c r="P12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="12">
+      <c r="R12" s="4"/>
+      <c r="S12" s="7">
         <v>44</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V12" s="12" t="s">
+      <c r="U12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1586,7 +1602,7 @@
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="2">
         <v>45</v>
       </c>
@@ -1599,33 +1615,34 @@
       <c r="J13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>11</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="13" t="s">
+      <c r="P13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="12">
+      <c r="R13" s="4"/>
+      <c r="S13" s="7">
         <v>45</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="T13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="12" t="s">
+      <c r="U13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1638,7 +1655,7 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2">
         <v>46</v>
       </c>
@@ -1651,33 +1668,34 @@
       <c r="J14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>12</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="13" t="s">
+      <c r="P14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="12">
+      <c r="R14" s="4"/>
+      <c r="S14" s="7">
         <v>46</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V14" s="12" t="s">
+      <c r="U14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1690,7 +1708,7 @@
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="2">
         <v>47</v>
       </c>
@@ -1703,33 +1721,34 @@
       <c r="J15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>13</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="13" t="s">
+      <c r="P15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="12">
+      <c r="R15" s="4"/>
+      <c r="S15" s="7">
         <v>47</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="T15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="12" t="s">
+      <c r="U15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1742,7 +1761,7 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2">
         <v>48</v>
       </c>
@@ -1755,33 +1774,34 @@
       <c r="J16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>14</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="13" t="s">
+      <c r="P16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="12">
+      <c r="R16" s="4"/>
+      <c r="S16" s="7">
         <v>48</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="T16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="U16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V16" s="12" t="s">
+      <c r="U16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1794,7 +1814,7 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2">
         <v>49</v>
       </c>
@@ -1807,33 +1827,35 @@
       <c r="J17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N17" s="12">
+      <c r="M17" s="14"/>
+      <c r="N17" s="7">
         <v>15</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="12" t="s">
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="12">
+      <c r="R17" s="4"/>
+      <c r="S17" s="7">
         <v>49</v>
       </c>
-      <c r="T17" s="12" t="s">
+      <c r="T17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="U17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="12" t="s">
+      <c r="U17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1846,7 +1868,7 @@
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="2">
         <v>50</v>
       </c>
@@ -1859,33 +1881,35 @@
       <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="12">
+      <c r="M18" s="14"/>
+      <c r="N18" s="7">
         <v>16</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="12">
+      <c r="R18" s="4"/>
+      <c r="S18" s="7">
         <v>50</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="U18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V18" s="12" t="s">
+      <c r="U18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1896,7 +1920,7 @@
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="2">
         <v>51</v>
       </c>
@@ -1907,29 +1931,29 @@
       <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="12">
-        <v>17</v>
-      </c>
-      <c r="O19" s="12" t="s">
+      <c r="N19" s="7">
+        <v>17</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="12">
+      <c r="R19" s="4"/>
+      <c r="S19" s="7">
         <v>51</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12" t="s">
+      <c r="U19" s="7"/>
+      <c r="V19" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1940,7 +1964,7 @@
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="2">
         <v>52</v>
       </c>
@@ -1951,29 +1975,29 @@
       <c r="J20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="7">
         <v>18</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="s">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="12">
+      <c r="R20" s="4"/>
+      <c r="S20" s="7">
         <v>52</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="T20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="s">
+      <c r="U20" s="7"/>
+      <c r="V20" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1986,7 +2010,7 @@
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="2">
         <v>53</v>
       </c>
@@ -1999,33 +2023,35 @@
       <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="12">
+      <c r="M21" s="14"/>
+      <c r="N21" s="7">
         <v>19</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="12" t="s">
+      <c r="P21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="12">
+      <c r="R21" s="4"/>
+      <c r="S21" s="7">
         <v>53</v>
       </c>
-      <c r="T21" s="12" t="s">
+      <c r="T21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V21" s="12" t="s">
+      <c r="U21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2038,7 +2064,7 @@
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="2">
         <v>54</v>
       </c>
@@ -2051,33 +2077,35 @@
       <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="12">
+      <c r="M22" s="14"/>
+      <c r="N22" s="7">
         <v>20</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+      <c r="P22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="12">
+      <c r="R22" s="4"/>
+      <c r="S22" s="7">
         <v>54</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="U22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V22" s="12" t="s">
+      <c r="U22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2090,7 +2118,7 @@
       <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="2">
         <v>55</v>
       </c>
@@ -2103,33 +2131,34 @@
       <c r="J23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="8">
         <v>21</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="13" t="s">
+      <c r="P23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R23" s="7"/>
-      <c r="S23" s="12">
+      <c r="R23" s="4"/>
+      <c r="S23" s="7">
         <v>55</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="U23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V23" s="12" t="s">
+      <c r="U23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -2142,7 +2171,7 @@
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="2">
         <v>56</v>
       </c>
@@ -2155,33 +2184,35 @@
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="12">
+      <c r="M24" s="14"/>
+      <c r="N24" s="7">
         <v>22</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="12" t="s">
+      <c r="P24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="12">
+      <c r="R24" s="4"/>
+      <c r="S24" s="7">
         <v>56</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="U24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V24" s="12" t="s">
+      <c r="U24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -2194,7 +2225,7 @@
       <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="2">
         <v>57</v>
       </c>
@@ -2207,33 +2238,35 @@
       <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="12">
+      <c r="M25" s="14"/>
+      <c r="N25" s="7">
         <v>23</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="O25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="12" t="s">
+      <c r="P25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="7"/>
-      <c r="S25" s="12">
+      <c r="R25" s="4"/>
+      <c r="S25" s="7">
         <v>57</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="U25" s="12" t="s">
+      <c r="U25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V25" s="12" t="s">
+      <c r="V25" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="14"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -2246,7 +2279,7 @@
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="2">
         <v>58</v>
       </c>
@@ -2259,33 +2292,35 @@
       <c r="J26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="12">
+      <c r="M26" s="14"/>
+      <c r="N26" s="7">
         <v>24</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="O26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="12" t="s">
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="12">
+      <c r="R26" s="4"/>
+      <c r="S26" s="7">
         <v>58</v>
       </c>
-      <c r="T26" s="12" t="s">
+      <c r="T26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="U26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V26" s="12" t="s">
+      <c r="U26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V26" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2298,7 +2333,7 @@
       <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="2">
         <v>59</v>
       </c>
@@ -2311,33 +2346,34 @@
       <c r="J27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="12">
+      <c r="M27" s="14"/>
+      <c r="N27" s="7">
         <v>25</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="O27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="P27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13">
+      <c r="R27" s="4"/>
+      <c r="S27" s="8">
         <v>59</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="V27" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2350,7 +2386,7 @@
       <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="2">
         <v>60</v>
       </c>
@@ -2363,33 +2399,35 @@
       <c r="J28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N28" s="12">
+      <c r="M28" s="14"/>
+      <c r="N28" s="7">
         <v>26</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="12" t="s">
+      <c r="P28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="12">
+      <c r="R28" s="4"/>
+      <c r="S28" s="7">
         <v>60</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="T28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="U28" s="12" t="s">
+      <c r="U28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="V28" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -2402,7 +2440,7 @@
       <c r="E29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="2">
         <v>61</v>
       </c>
@@ -2415,33 +2453,35 @@
       <c r="J29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N29" s="12">
+      <c r="M29" s="14"/>
+      <c r="N29" s="7">
         <v>27</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="O29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="12" t="s">
+      <c r="P29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="12">
+      <c r="R29" s="4"/>
+      <c r="S29" s="7">
         <v>61</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="U29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V29" s="12" t="s">
+      <c r="U29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -2454,7 +2494,7 @@
       <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="2">
         <v>62</v>
       </c>
@@ -2467,33 +2507,35 @@
       <c r="J30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N30" s="12">
+      <c r="M30" s="14"/>
+      <c r="N30" s="7">
         <v>28</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="O30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="12" t="s">
+      <c r="P30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R30" s="7"/>
-      <c r="S30" s="12">
+      <c r="R30" s="4"/>
+      <c r="S30" s="7">
         <v>62</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V30" s="12" t="s">
+      <c r="V30" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -2506,7 +2548,7 @@
       <c r="E31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="2">
         <v>63</v>
       </c>
@@ -2519,33 +2561,35 @@
       <c r="J31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="12">
+      <c r="M31" s="14"/>
+      <c r="N31" s="7">
         <v>29</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="12" t="s">
+      <c r="P31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R31" s="7"/>
-      <c r="S31" s="12">
+      <c r="R31" s="4"/>
+      <c r="S31" s="7">
         <v>63</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="T31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="U31" s="12" t="s">
+      <c r="U31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V31" s="12" t="s">
+      <c r="V31" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -2558,7 +2602,7 @@
       <c r="E32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="2">
         <v>64</v>
       </c>
@@ -2571,33 +2615,35 @@
       <c r="J32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N32" s="12">
+      <c r="M32" s="14"/>
+      <c r="N32" s="7">
         <v>30</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="P32" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="7"/>
-      <c r="S32" s="12">
+      <c r="R32" s="4"/>
+      <c r="S32" s="7">
         <v>64</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="T32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="U32" s="12" t="s">
+      <c r="U32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V32" s="12" t="s">
+      <c r="V32" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -2610,7 +2656,7 @@
       <c r="E33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2">
         <v>65</v>
       </c>
@@ -2623,33 +2669,35 @@
       <c r="J33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="12">
+      <c r="M33" s="14"/>
+      <c r="N33" s="7">
         <v>31</v>
       </c>
-      <c r="O33" s="12" t="s">
+      <c r="O33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="P33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R33" s="7"/>
-      <c r="S33" s="12">
+      <c r="R33" s="4"/>
+      <c r="S33" s="7">
         <v>65</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="T33" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="U33" s="12" t="s">
+      <c r="U33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V33" s="12" t="s">
+      <c r="V33" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -2662,7 +2710,7 @@
       <c r="E34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="2">
         <v>66</v>
       </c>
@@ -2675,33 +2723,35 @@
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N34" s="12">
+      <c r="M34" s="14"/>
+      <c r="N34" s="7">
         <v>32</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="O34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="P34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R34" s="7"/>
-      <c r="S34" s="12">
+      <c r="R34" s="4"/>
+      <c r="S34" s="7">
         <v>66</v>
       </c>
-      <c r="T34" s="12" t="s">
+      <c r="T34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="U34" s="12" t="s">
+      <c r="U34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V34" s="12" t="s">
+      <c r="V34" s="7" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -2712,7 +2762,7 @@
       <c r="E35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="2">
         <v>67</v>
       </c>
@@ -2725,31 +2775,31 @@
       <c r="J35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="8">
         <v>33</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13" t="s">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="7"/>
-      <c r="S35" s="12">
+      <c r="R35" s="4"/>
+      <c r="S35" s="7">
         <v>67</v>
       </c>
-      <c r="T35" s="12" t="s">
+      <c r="T35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="U35" s="12" t="s">
+      <c r="U35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="V35" s="12" t="s">
+      <c r="V35" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -2760,7 +2810,7 @@
       <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="2">
         <v>68</v>
       </c>
@@ -2771,396 +2821,186 @@
       <c r="J36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="7">
         <v>34</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="O36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12" t="s">
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="7"/>
-      <c r="S36" s="12">
+      <c r="R36" s="4"/>
+      <c r="S36" s="7">
         <v>68</v>
       </c>
-      <c r="T36" s="12" t="s">
+      <c r="T36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12" t="s">
+      <c r="U36" s="7"/>
+      <c r="V36" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-    </row>
-    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-    </row>
-    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-    </row>
-    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-    </row>
-    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-    </row>
-    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-    </row>
-    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-    </row>
-    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-    </row>
-    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-    </row>
-    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-    </row>
-    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-    </row>
-    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-    </row>
-    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-    </row>
-    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-    </row>
-    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-    </row>
-    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-    </row>
-    <row r="87" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-    </row>
-    <row r="88" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-    </row>
-    <row r="89" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
+++ b/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A4BB26-3F6F-4E41-9C5E-D1F855A11600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED526065-5355-4C54-BD69-1CF446853728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -635,6 +635,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -961,58 +961,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F011D9DF-B9D4-4017-9120-1D11F56BF4C8}">
   <dimension ref="B1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30:V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="23.85546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11" max="14" width="9.109375" style="3"/>
+    <col min="15" max="16" width="9.109375" style="6"/>
+    <col min="17" max="17" width="23.88671875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="N1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="N1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="14"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="7">
         <v>2</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="7">
         <v>3</v>
       </c>
@@ -1213,9 +1213,9 @@
       <c r="V5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="7">
         <v>4</v>
       </c>
@@ -1267,9 +1267,9 @@
       <c r="V6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="7">
         <v>5</v>
       </c>
@@ -1321,9 +1321,9 @@
       <c r="V7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="J8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="7">
         <v>6</v>
       </c>
@@ -1375,9 +1375,9 @@
       <c r="V8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W8" s="14"/>
-    </row>
-    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="7">
         <v>7</v>
       </c>
@@ -1429,9 +1429,9 @@
       <c r="V9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="14"/>
-    </row>
-    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="7">
         <v>9</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1587,9 +1587,9 @@
       <c r="V12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1640,9 +1640,9 @@
       <c r="V13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W13" s="14"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1693,9 +1693,9 @@
       <c r="V14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="W14" s="14"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="11"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1746,9 +1746,9 @@
       <c r="V15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W15" s="14"/>
-    </row>
-    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1799,9 +1799,9 @@
       <c r="V16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="J17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="7">
         <v>15</v>
       </c>
@@ -1853,9 +1853,9 @@
       <c r="V17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="W17" s="14"/>
-    </row>
-    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="7">
         <v>16</v>
       </c>
@@ -1907,9 +1907,9 @@
       <c r="V18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="14"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="7">
         <v>19</v>
       </c>
@@ -2049,9 +2049,9 @@
       <c r="V21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="14"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="7">
         <v>20</v>
       </c>
@@ -2103,9 +2103,9 @@
       <c r="V22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2156,9 +2156,9 @@
       <c r="V23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="14"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="7">
         <v>22</v>
       </c>
@@ -2210,9 +2210,9 @@
       <c r="V24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="2:23" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -2238,7 +2238,7 @@
       <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="14"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="7">
         <v>23</v>
       </c>
@@ -2264,9 +2264,9 @@
       <c r="V25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W25" s="14"/>
-    </row>
-    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="J26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M26" s="14"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="7">
         <v>24</v>
       </c>
@@ -2318,9 +2318,9 @@
       <c r="V26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="J27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="14"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="7">
         <v>25</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="J28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="14"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="7">
         <v>26</v>
       </c>
@@ -2425,9 +2425,9 @@
       <c r="V28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -2453,7 +2453,7 @@
       <c r="J29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="14"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="7">
         <v>27</v>
       </c>
@@ -2479,9 +2479,9 @@
       <c r="V29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="11"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="J30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="14"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="7">
         <v>28</v>
       </c>
@@ -2533,9 +2533,9 @@
       <c r="V30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="J31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="14"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="7">
         <v>29</v>
       </c>
@@ -2587,9 +2587,9 @@
       <c r="V31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="J32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="14"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="7">
         <v>30</v>
       </c>
@@ -2641,9 +2641,9 @@
       <c r="V32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W32" s="11"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -2669,7 +2669,7 @@
       <c r="J33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="14"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="7">
         <v>31</v>
       </c>
@@ -2695,9 +2695,9 @@
       <c r="V33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="11"/>
+    </row>
+    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="14"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="7">
         <v>32</v>
       </c>
@@ -2749,9 +2749,9 @@
       <c r="V34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="11"/>
+    </row>
+    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -2843,163 +2843,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J89" s="3"/>
     </row>
   </sheetData>

--- a/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
+++ b/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED526065-5355-4C54-BD69-1CF446853728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EA1A1-82E9-42AC-9A80-A4F93B8EC471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +488,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -533,7 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -635,7 +643,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,6 +652,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -961,58 +970,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F011D9DF-B9D4-4017-9120-1D11F56BF4C8}">
   <dimension ref="B1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30:V31"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
-    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="5" customWidth="1"/>
-    <col min="11" max="14" width="9.109375" style="3"/>
-    <col min="15" max="16" width="9.109375" style="6"/>
-    <col min="17" max="17" width="23.88671875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="5" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="3"/>
+    <col min="15" max="16" width="9.140625" style="6"/>
+    <col min="17" max="17" width="23.85546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-      <c r="N1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="N1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="14"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1134,7 +1143,7 @@
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="11"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="7">
         <v>2</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1187,7 +1196,7 @@
       <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="7">
         <v>3</v>
       </c>
@@ -1213,9 +1222,9 @@
       <c r="V5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="11"/>
-    </row>
-    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1241,7 +1250,7 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="11"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="7">
         <v>4</v>
       </c>
@@ -1267,9 +1276,9 @@
       <c r="V6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="11"/>
-    </row>
-    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1295,7 +1304,7 @@
       <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="11"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="7">
         <v>5</v>
       </c>
@@ -1321,9 +1330,9 @@
       <c r="V7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="11"/>
-    </row>
-    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1349,7 +1358,7 @@
       <c r="J8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="7">
         <v>6</v>
       </c>
@@ -1375,9 +1384,9 @@
       <c r="V8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W8" s="11"/>
-    </row>
-    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="15"/>
+    </row>
+    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1403,7 +1412,7 @@
       <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="7">
         <v>7</v>
       </c>
@@ -1429,9 +1438,9 @@
       <c r="V9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="11"/>
-    </row>
-    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1509,7 +1518,7 @@
       <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="7">
         <v>9</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1587,9 +1596,9 @@
       <c r="V12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W12" s="15"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1640,9 +1649,9 @@
       <c r="V13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W13" s="15"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1693,9 +1702,9 @@
       <c r="V14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W14" s="15"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1746,9 +1755,9 @@
       <c r="V15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="15"/>
+    </row>
+    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1799,9 +1808,9 @@
       <c r="V16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W16" s="15"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1827,7 +1836,7 @@
       <c r="J17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="11"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="7">
         <v>15</v>
       </c>
@@ -1853,9 +1862,9 @@
       <c r="V17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1881,7 +1890,7 @@
       <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="7">
         <v>16</v>
       </c>
@@ -1907,9 +1916,9 @@
       <c r="V18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W18" s="15"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2023,7 +2032,7 @@
       <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="7">
         <v>19</v>
       </c>
@@ -2049,9 +2058,9 @@
       <c r="V21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2077,7 +2086,7 @@
       <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="7">
         <v>20</v>
       </c>
@@ -2103,9 +2112,9 @@
       <c r="V22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2156,9 +2165,9 @@
       <c r="V23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -2184,7 +2193,7 @@
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="7">
         <v>22</v>
       </c>
@@ -2210,9 +2219,9 @@
       <c r="V24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="2:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -2238,7 +2247,7 @@
       <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="7">
         <v>23</v>
       </c>
@@ -2264,9 +2273,9 @@
       <c r="V25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -2292,7 +2301,7 @@
       <c r="J26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="7">
         <v>24</v>
       </c>
@@ -2318,9 +2327,9 @@
       <c r="V26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="15"/>
+    </row>
+    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2346,7 +2355,7 @@
       <c r="J27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="7">
         <v>25</v>
       </c>
@@ -2373,7 +2382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2399,7 +2408,7 @@
       <c r="J28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="11"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="7">
         <v>26</v>
       </c>
@@ -2425,9 +2434,9 @@
       <c r="V28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -2453,7 +2462,7 @@
       <c r="J29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="11"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="7">
         <v>27</v>
       </c>
@@ -2479,9 +2488,9 @@
       <c r="V29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -2507,7 +2516,7 @@
       <c r="J30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="11"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="7">
         <v>28</v>
       </c>
@@ -2533,9 +2542,9 @@
       <c r="V30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -2561,7 +2570,7 @@
       <c r="J31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="11"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="7">
         <v>29</v>
       </c>
@@ -2587,9 +2596,9 @@
       <c r="V31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W31" s="15"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -2615,7 +2624,7 @@
       <c r="J32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="11"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="7">
         <v>30</v>
       </c>
@@ -2641,9 +2650,9 @@
       <c r="V32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -2669,7 +2678,7 @@
       <c r="J33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="11"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="7">
         <v>31</v>
       </c>
@@ -2695,9 +2704,9 @@
       <c r="V33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -2723,7 +2732,7 @@
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="11"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="7">
         <v>32</v>
       </c>
@@ -2749,9 +2758,9 @@
       <c r="V34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -2843,163 +2852,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="3"/>
     </row>
   </sheetData>

--- a/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
+++ b/CAM-ALTERA_STM/CI_РАСПИНОВКА.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CASS\CAM-ALTERA_STM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EA1A1-82E9-42AC-9A80-A4F93B8EC471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC30FE4-832E-45AD-BF2B-0A868ADD69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
+    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" xr2:uid="{FACCE869-F8FD-414E-A421-0ABB88048504}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -643,6 +643,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -652,8 +654,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -970,58 +970,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F011D9DF-B9D4-4017-9120-1D11F56BF4C8}">
   <dimension ref="B1:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="3"/>
-    <col min="15" max="16" width="9.140625" style="6"/>
-    <col min="17" max="17" width="23.85546875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.7109375" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="13.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="14.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11" max="14" width="9.109375" style="3"/>
+    <col min="15" max="16" width="9.109375" style="6"/>
+    <col min="17" max="17" width="23.88671875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="N1" s="11" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="7">
         <v>2</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="J5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="7">
         <v>3</v>
       </c>
@@ -1222,9 +1222,9 @@
       <c r="V5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="7">
         <v>4</v>
       </c>
@@ -1276,9 +1276,9 @@
       <c r="V6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="7">
         <v>5</v>
       </c>
@@ -1330,9 +1330,9 @@
       <c r="V7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="15"/>
-    </row>
-    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="12"/>
+    </row>
+    <row r="8" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="J8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="7">
         <v>6</v>
       </c>
@@ -1384,9 +1384,9 @@
       <c r="V8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W8" s="15"/>
-    </row>
-    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="J9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="7">
         <v>7</v>
       </c>
@@ -1438,9 +1438,9 @@
       <c r="V9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="15"/>
-    </row>
-    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="J11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="7">
         <v>9</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1596,9 +1596,9 @@
       <c r="V12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1649,9 +1649,9 @@
       <c r="V13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1702,9 +1702,9 @@
       <c r="V14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="12"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1755,9 +1755,9 @@
       <c r="V15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="12"/>
+    </row>
+    <row r="16" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1808,9 +1808,9 @@
       <c r="V16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="2:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="J17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="15"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="7">
         <v>15</v>
       </c>
@@ -1862,9 +1862,9 @@
       <c r="V17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="12"/>
+    </row>
+    <row r="18" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="J18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="7">
         <v>16</v>
       </c>
@@ -1916,9 +1916,9 @@
       <c r="V18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="J21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="7">
         <v>19</v>
       </c>
@@ -2058,9 +2058,9 @@
       <c r="V21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="W21" s="15"/>
-    </row>
-    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="12"/>
+    </row>
+    <row r="22" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="7">
         <v>20</v>
       </c>
@@ -2112,9 +2112,9 @@
       <c r="V22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -2165,9 +2165,9 @@
       <c r="V23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="12"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="J24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="7">
         <v>22</v>
       </c>
@@ -2219,9 +2219,9 @@
       <c r="V24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="W24" s="15"/>
-    </row>
-    <row r="25" spans="2:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="2:23" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="J25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="7">
         <v>23</v>
       </c>
@@ -2273,9 +2273,9 @@
       <c r="V25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="W25" s="15"/>
-    </row>
-    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="12"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -2301,7 +2301,7 @@
       <c r="J26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="7">
         <v>24</v>
       </c>
@@ -2327,9 +2327,9 @@
       <c r="V26" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="12"/>
+    </row>
+    <row r="27" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="J27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="7">
         <v>25</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="J28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="7">
         <v>26</v>
       </c>
@@ -2434,9 +2434,9 @@
       <c r="V28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="12"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="J29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="7">
         <v>27</v>
       </c>
@@ -2488,9 +2488,9 @@
       <c r="V29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="12"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -2516,7 +2516,7 @@
       <c r="J30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="7">
         <v>28</v>
       </c>
@@ -2542,9 +2542,9 @@
       <c r="V30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="12"/>
+    </row>
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="J31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="15"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="7">
         <v>29</v>
       </c>
@@ -2596,9 +2596,9 @@
       <c r="V31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="W31" s="15"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="J32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="15"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="7">
         <v>30</v>
       </c>
@@ -2650,9 +2650,9 @@
       <c r="V32" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="W32" s="15"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="J33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="7">
         <v>31</v>
       </c>
@@ -2704,9 +2704,9 @@
       <c r="V33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="W33" s="15"/>
-    </row>
-    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="12"/>
+    </row>
+    <row r="34" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="J34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="7">
         <v>32</v>
       </c>
@@ -2758,9 +2758,9 @@
       <c r="V34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="W34" s="15"/>
-    </row>
-    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="12"/>
+    </row>
+    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -2852,163 +2852,166 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J75" s="3"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J89" s="3"/>
     </row>
   </sheetData>
